--- a/biology/Zoologie/Colas_de_La_Réunion/Colas_de_La_Réunion.xlsx
+++ b/biology/Zoologie/Colas_de_La_Réunion/Colas_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colas_de_La_R%C3%A9union</t>
+          <t>Colas_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symphysanodon pitondelafournaisei, communément appelé Colas de La Réunion[1], est une espèce de poissons abyssaux appartenant à la famille des Symphysanodontidae. Il est nommé d'après le Piton de la Fournaise, le volcan de La Réunion dont l'éruption de 2007 a permis sa découverte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symphysanodon pitondelafournaisei, communément appelé Colas de La Réunion, est une espèce de poissons abyssaux appartenant à la famille des Symphysanodontidae. Il est nommé d'après le Piton de la Fournaise, le volcan de La Réunion dont l'éruption de 2007 a permis sa découverte.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colas_de_La_R%C3%A9union</t>
+          <t>Colas_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un poisson pélagique abyssal des eaux tropicales de La Réunion, le seul endroit où sa présence a été rapportée (grâce au projet Biolave). Découvert en 2007 et décrit en 2009, son mode de vie et ses caractéristiques biologiques sont inconnus : les spécimens collectés sont remontés des grandes profondeurs auxquelles ils vivent sous l'effet de l'éruption du volcan qui leur a donné son nom[2],[3]. Il atteint 10 cm de longueur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un poisson pélagique abyssal des eaux tropicales de La Réunion, le seul endroit où sa présence a été rapportée (grâce au projet Biolave). Découvert en 2007 et décrit en 2009, son mode de vie et ses caractéristiques biologiques sont inconnus : les spécimens collectés sont remontés des grandes profondeurs auxquelles ils vivent sous l'effet de l'éruption du volcan qui leur a donné son nom,. Il atteint 10 cm de longueur.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colas_de_La_R%C3%A9union</t>
+          <t>Colas_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Claude Quéro, Jérôme Spitz et Jean-Jacques Vayne, « Symphysanodon pitondelafournaisei : une nouvelle espèce de Symphysanodontidae (Perciformes) de l’île de La Réunion (France, océan Indien) », Cybium, Muséum national d'histoire naturelle, vol. 33, no 1,‎ 2009, p. 73-77 (ISSN 0399-0974 et 2101-0315, lire en ligne)</t>
         </is>
